--- a/My-data.xlsx
+++ b/My-data.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Library\Documents\UiPath\RPAProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\UI_Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24E4294-2B00-4317-B53E-2B9EB1FB4B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C07F00-F861-45D3-A5DD-E30C361FD236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30FE373-31EF-4518-ACC0-76A5FD1A4D1F}"/>
+    <workbookView xWindow="12516" yWindow="1320" windowWidth="10524" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t xml:space="preserve">Vedvrat </t>
   </si>
@@ -42,55 +33,16 @@
     <t xml:space="preserve">VEDVRATSP@GMAIL.COM </t>
   </si>
   <si>
-    <t xml:space="preserve"> CA$33.33 </t>
+    <t xml:space="preserve">22-12-2020 </t>
   </si>
   <si>
-    <t xml:space="preserve">Genevieve </t>
-  </si>
-  <si>
-    <t xml:space="preserve">genaricheta@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CA$48.33 </t>
-  </si>
-  <si>
-    <t>Shubhi</t>
-  </si>
-  <si>
-    <t>shubhangibhadouria@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CA$113.00</t>
-  </si>
-  <si>
-    <t>Javed</t>
-  </si>
-  <si>
-    <t>Javedahmed1372@gmail.com</t>
-  </si>
-  <si>
-    <t>12-04-2021</t>
-  </si>
-  <si>
-    <t>12-22-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CA$56.00</t>
-  </si>
-  <si>
-    <t>4-22-2021</t>
-  </si>
-  <si>
-    <t>2-16-2020</t>
+    <t xml:space="preserve"> CA$33.33 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,18 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,7 +108,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -178,7 +120,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -225,23 +167,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,23 +202,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,18 +353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F21CAD6-AE7D-4212-AACA-FAEFDD635295}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -468,69 +372,65 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2371</v>
+        <v>2356</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2390</v>
+        <v>2356</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1291</v>
+        <v>2356</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>